--- a/2016-2017/Appli outil de recherche donjon et raid wow/WOW DJ et RAID.xlsx
+++ b/2016-2017/Appli outil de recherche donjon et raid wow/WOW DJ et RAID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="197">
   <si>
     <t>NOM</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -1782,20 +1785,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="4.25" style="58" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="55" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3150,6 +3153,9 @@
       <c r="E49" s="6">
         <v>80</v>
       </c>
+      <c r="G49" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H49" s="42">
         <v>1</v>
       </c>
@@ -3178,6 +3184,9 @@
       <c r="E50" s="6">
         <v>80</v>
       </c>
+      <c r="G50" s="58" t="s">
+        <v>196</v>
+      </c>
       <c r="H50" s="42">
         <f>H49+1</f>
         <v>2</v>
@@ -3236,6 +3245,9 @@
       <c r="E52" s="6">
         <v>80</v>
       </c>
+      <c r="G52" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H52" s="42">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -3265,6 +3277,9 @@
       <c r="E53" s="6">
         <v>80</v>
       </c>
+      <c r="G53" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H53" s="42">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3294,6 +3309,9 @@
       <c r="E54" s="6">
         <v>80</v>
       </c>
+      <c r="G54" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H54" s="42">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -3323,6 +3341,9 @@
       <c r="E55" s="6">
         <v>80</v>
       </c>
+      <c r="G55" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H55" s="42">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -3410,6 +3431,9 @@
       <c r="E58" s="6">
         <v>80</v>
       </c>
+      <c r="G58" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H58" s="42">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -3439,6 +3463,9 @@
       <c r="E59" s="6">
         <v>80</v>
       </c>
+      <c r="G59" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H59" s="42">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -3468,6 +3495,9 @@
       <c r="E60" s="6">
         <v>80</v>
       </c>
+      <c r="G60" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H60" s="42">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -3496,6 +3526,9 @@
       </c>
       <c r="E61" s="21">
         <v>80</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="H61" s="42">
         <f t="shared" si="8"/>
@@ -3541,6 +3574,9 @@
       <c r="E63" s="24" t="s">
         <v>19</v>
       </c>
+      <c r="G63" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H63" s="42">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -3569,6 +3605,9 @@
       <c r="E64" s="24">
         <v>85</v>
       </c>
+      <c r="G64" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H64" s="42">
         <f t="shared" si="8"/>
         <v>16</v>
@@ -3598,6 +3637,9 @@
       <c r="E65" s="24">
         <v>85</v>
       </c>
+      <c r="G65" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="H65" s="42">
         <f t="shared" si="8"/>
         <v>17</v>
@@ -3626,6 +3668,9 @@
       </c>
       <c r="E66" s="24">
         <v>85</v>
+      </c>
+      <c r="G66" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="H66" s="73">
         <f t="shared" si="8"/>
@@ -4049,6 +4094,9 @@
       <c r="K84" s="43"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B85" s="42">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -4068,6 +4116,9 @@
       <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B86" s="42">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -4087,6 +4138,9 @@
       <c r="K86" s="43"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B87" s="42">
         <f t="shared" si="11"/>
         <v>8</v>
@@ -4106,6 +4160,9 @@
       <c r="K87" s="43"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B88" s="44">
         <f t="shared" si="11"/>
         <v>9</v>
@@ -5001,7 +5058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5013,7 +5070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
